--- a/GameDisplay/GameDisplay.App/App_Data/BUser.xlsx
+++ b/GameDisplay/GameDisplay.App/App_Data/BUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectMy\GameDisplay\GameDisplay\GameDisplay.App\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68C99308-338B-425E-BD3F-0D38E97714B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B69F5845-484E-43D2-9346-D84958935935}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16905" windowHeight="8970" xr2:uid="{38DBD52F-4D9E-4461-8396-5CA28CBBDA98}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>13841110001</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>13841110002</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>13841110003</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>13841110004</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>13841110005</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -687,7 +687,7 @@
         <v>13841110006</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>13841110007</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>13841110008</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>13841110009</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>1</v>

--- a/GameDisplay/GameDisplay.App/App_Data/BUser.xlsx
+++ b/GameDisplay/GameDisplay.App/App_Data/BUser.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectMy\GameDisplay\GameDisplay\GameDisplay.App\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B69F5845-484E-43D2-9346-D84958935935}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FCC66D5-7F80-4A7D-BFDD-D06F65D80AA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16905" windowHeight="8970" xr2:uid="{38DBD52F-4D9E-4461-8396-5CA28CBBDA98}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9165" xr2:uid="{A392EF1B-23B2-4523-B309-D319A6DF7B49}"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="2" r:id="rId1"/>
+    <sheet name="BUser" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Telephone</t>
   </si>
   <si>
+    <t>IsActive</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
@@ -55,82 +58,95 @@
     <t>CreateTime</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>6ZoYxCjLONXyYIU2eJIuAw==</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>admin@qq.com</t>
   </si>
   <si>
+    <t>zhaoning</t>
+  </si>
+  <si>
+    <t>赵宁</t>
+  </si>
+  <si>
     <t>zhangsan@qq.com</t>
   </si>
   <si>
+    <t>qianduoduo</t>
+  </si>
+  <si>
     <t>钱多多</t>
   </si>
   <si>
+    <t>sunce</t>
+  </si>
+  <si>
     <t>孙策</t>
   </si>
   <si>
+    <t>liyong</t>
+  </si>
+  <si>
     <t>李咏</t>
   </si>
   <si>
+    <t>zhoutian</t>
+  </si>
+  <si>
     <t>周天</t>
   </si>
   <si>
+    <t>wuyong</t>
+  </si>
+  <si>
     <t>吴用</t>
   </si>
   <si>
+    <t>zhengqian</t>
+  </si>
+  <si>
     <t>郑芊</t>
   </si>
   <si>
-    <t>王可</t>
-  </si>
-  <si>
-    <t>赵宁</t>
-  </si>
-  <si>
-    <t>zhaoning</t>
-  </si>
-  <si>
-    <t>qianduoduo</t>
-  </si>
-  <si>
-    <t>sunce</t>
-  </si>
-  <si>
-    <t>liyong</t>
-  </si>
-  <si>
-    <t>zhoutian</t>
-  </si>
-  <si>
-    <t>wuyong</t>
-  </si>
-  <si>
-    <t>zhengqian</t>
-  </si>
-  <si>
-    <t>wangke</t>
+    <t>wanganshi</t>
+  </si>
+  <si>
+    <t>王安石</t>
+  </si>
+  <si>
+    <t>wanganshi@qq.com</t>
+  </si>
+  <si>
+    <t>冯静</t>
+  </si>
+  <si>
+    <t>fengjing</t>
+  </si>
+  <si>
+    <t>fengjing@qq.com</t>
+  </si>
+  <si>
+    <t>陈胜</t>
+  </si>
+  <si>
+    <t>chensheng</t>
+  </si>
+  <si>
+    <t>chensheng@qq.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,18 +169,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,24 +490,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF1CF3B-83F2-4B56-A002-72F85AC23385}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41BD211-06F5-4C39-81CA-7AA2F574F2E2}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,240 +539,267 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
       <c r="F2">
         <v>13841110001</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
         <v>43453.666666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3">
         <v>13841110002</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>43453.666666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4">
         <v>13841110003</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
         <v>43453.666666608799</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5">
         <v>13841110004</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>43453.666666608799</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
       <c r="F6">
         <v>13841110005</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
         <v>43453.666666608799</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>13841110006</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>43453.666666608799</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
       <c r="F8">
         <v>13841110007</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
         <v>43453.666666608799</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
       <c r="F9">
         <v>13841110008</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
         <v>43453.666666608799</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -762,46 +807,105 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
       <c r="F10">
         <v>13841110009</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>43454.666666608799</v>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>13841110010</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>43453.666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>13841110011</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43453.666666666664</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2C63F43C-61DF-4BFD-A62E-5A5325761857}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{F0C9DB78-1FDC-478C-873A-ABCFF7F99DA9}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{ED156613-DAE4-4720-946D-4A61E7E55CD1}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{11E653A0-0BC5-4164-B2D8-7768E8C248B1}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{CF7CA436-E492-4CF5-9544-234B52603157}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{61EA9295-FE5C-4FD3-9ED2-46C523358A6D}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{F0A2CC5D-3D3E-4387-BCDF-9772CB2680EA}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{5C4B5251-7BE6-46BB-97E8-7796E22309EA}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{143C16DB-66CB-4E46-BE2C-8BB248F82094}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{B1152DCD-9BE0-40CE-B100-BE6C5D47486C}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{9889FB50-0AD6-4033-89F2-F747A3DCDF82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20E0862-96A7-454B-9804-357E6B96F2EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B15C1AB-44BE-4F3B-B0D4-938BAA6DDFDD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
